--- a/ProducBacklogDIVI.xlsx
+++ b/ProducBacklogDIVI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Desktop\MisionTic\Ciclo 3\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Desktop\MisionTic\Ciclo 3\DiviRepo\ProyectoCiclo3Alquiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EF5AD-1743-4223-B483-6131237FCD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E29B28-E79D-47EA-B12F-58A781547A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21E0CB-6134-4B09-8469-ECF1FB101D46}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1862,7 @@
         <v>44439</v>
       </c>
       <c r="D6" s="22">
-        <v>44479</v>
+        <v>44449</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>53</v>
@@ -1970,7 +1970,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22">
         <v>44445</v>
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FF1F0A-A305-48E7-B3BD-C02823EB40A9}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/ProducBacklogDIVI.xlsx
+++ b/ProducBacklogDIVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Desktop\MisionTic\Ciclo 3\DiviRepo\ProyectoCiclo3Alquiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E29B28-E79D-47EA-B12F-58A781547A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EB2A7-513A-4331-9FE7-FAC3670CA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE24296-9BC8-4A11-93B8-16D5FE0728FB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2019,7 @@
         <v>44452</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FF1F0A-A305-48E7-B3BD-C02823EB40A9}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/ProducBacklogDIVI.xlsx
+++ b/ProducBacklogDIVI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Desktop\MisionTic\Ciclo 3\DiviRepo\ProyectoCiclo3Alquiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Documents\Coding\MisionTic Ciclo 3\ProjectDivi\ProyectoCiclo3Alquiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03EB2A7-513A-4331-9FE7-FAC3670CA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43CBF5-B84F-4ED1-8A95-13436776A950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21E0CB-6134-4B09-8469-ECF1FB101D46}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,7 @@
         <v>44449</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>44443</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>44444</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE24296-9BC8-4A11-93B8-16D5FE0728FB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2016,7 @@
         <v>44445</v>
       </c>
       <c r="D3" s="22">
-        <v>44452</v>
+        <v>44457</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>53</v>
@@ -2033,10 +2033,10 @@
         <v>44445</v>
       </c>
       <c r="D4" s="22">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,10 +2050,10 @@
         <v>44445</v>
       </c>
       <c r="D5" s="22">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>44445</v>
       </c>
       <c r="D6" s="22">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>44445</v>
       </c>
       <c r="D7" s="22">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,10 +2101,10 @@
         <v>44445</v>
       </c>
       <c r="D8" s="22">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
